--- a/excel/2023/Concentrado_Lotes.xlsx
+++ b/excel/2023/Concentrado_Lotes.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SEPT." sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja3" sheetId="2" r:id="rId5"/>
+    <sheet name="SEPT. (2)" sheetId="2" r:id="rId5"/>
     <sheet name="OCT." sheetId="3" r:id="rId6"/>
-    <sheet name="detallado" sheetId="4" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId7"/>
+    <sheet name="detallado" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SEPT.'!$A$1:$T$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'detallado'!$A$1:$T$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SEPT. (2)'!$A$1:$T$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'detallado'!$A$1:$T$70</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
@@ -1881,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
@@ -5115,14 +5117,16 @@
       <c r="H67" s="10">
         <v>8190</v>
       </c>
-      <c r="I67" s="85"/>
+      <c r="I67" s="85">
+        <v>4000</v>
+      </c>
       <c r="J67" s="10">
         <f>F67-I67</f>
-        <v>8190</v>
+        <v>4190</v>
       </c>
       <c r="L67" s="23">
         <f>F67+I67</f>
-        <v>8190</v>
+        <v>12190</v>
       </c>
       <c r="P67" s="40" t="s">
         <v>180</v>
@@ -5163,14 +5167,16 @@
       <c r="H68" s="10">
         <v>3402</v>
       </c>
-      <c r="I68" s="85"/>
+      <c r="I68" s="85">
+        <v>3402</v>
+      </c>
       <c r="J68" s="10">
         <f>F68-I68</f>
-        <v>3402</v>
+        <v>0</v>
       </c>
       <c r="L68" s="23">
         <f>F68+I68</f>
-        <v>3402</v>
+        <v>6804</v>
       </c>
       <c r="P68" s="40" t="s">
         <v>181</v>
@@ -5469,6 +5475,3602 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:T80"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="56.42578125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.85546875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.85546875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true" style="21"/>
+    <col min="7" max="7" width="8.5703125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.85546875" customWidth="true" style="22"/>
+    <col min="10" max="10" width="10.85546875" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17.5703125" customWidth="true" style="0"/>
+    <col min="16" max="16" width="52.28515625" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" customHeight="1" ht="31.5">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B2" s="86">
+        <v>61018091</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="20">
+        <v>5344</v>
+      </c>
+      <c r="G2" s="8">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6">
+        <f>F2/12</f>
+        <v>445.33333333333</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="10">
+        <f>F2-I2</f>
+        <v>5344</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="23">
+        <f>F2+I2</f>
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" customHeight="1" ht="12">
+      <c r="A3" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="20">
+        <v>17280</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>720</v>
+      </c>
+      <c r="I3" s="85"/>
+      <c r="J3" s="10">
+        <f>F3-I3</f>
+        <v>17280</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="23">
+        <f>F3+I3</f>
+        <v>17280</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A4" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20">
+        <v>12672</v>
+      </c>
+      <c r="G4" s="8">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1056</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="10">
+        <f>F4-I4</f>
+        <v>12672</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="23">
+        <f>F4+I4</f>
+        <v>12672</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="88">
+        <v>61018091</v>
+      </c>
+      <c r="R4" s="89">
+        <v>75</v>
+      </c>
+      <c r="S4" s="90">
+        <v>12</v>
+      </c>
+      <c r="T4" s="146"/>
+    </row>
+    <row r="5" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A5" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20">
+        <v>8064</v>
+      </c>
+      <c r="G5" s="8">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>672</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="10">
+        <f>F5-I5</f>
+        <v>8064</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="23">
+        <f>F5+I5</f>
+        <v>8064</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>61028421</v>
+      </c>
+      <c r="R5" s="92">
+        <v>30</v>
+      </c>
+      <c r="S5" s="93">
+        <v>4</v>
+      </c>
+      <c r="T5" s="146"/>
+    </row>
+    <row r="6" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A6" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="20">
+        <v>9792</v>
+      </c>
+      <c r="G6" s="8">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6">
+        <v>816</v>
+      </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="10">
+        <f>F6-I6</f>
+        <v>9792</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="23">
+        <f>F6+I6</f>
+        <v>9792</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="92">
+        <v>30</v>
+      </c>
+      <c r="S6" s="93">
+        <v>4</v>
+      </c>
+      <c r="T6" s="146"/>
+    </row>
+    <row r="7" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A7" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B7" s="6">
+        <v>61018090</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="20">
+        <v>3144</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>262</v>
+      </c>
+      <c r="I7" s="85"/>
+      <c r="J7" s="10">
+        <f>F7-I7</f>
+        <v>3144</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="23">
+        <f>F7+I7</f>
+        <v>3144</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="92">
+        <v>48</v>
+      </c>
+      <c r="S7" s="93">
+        <v>12</v>
+      </c>
+      <c r="T7" s="146"/>
+    </row>
+    <row r="8" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A8" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B8" s="6">
+        <v>61018090</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="20">
+        <v>3036</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>253</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="10">
+        <f>F8-I8</f>
+        <v>3036</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23">
+        <f>F8+I8</f>
+        <v>3036</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="92">
+        <v>42</v>
+      </c>
+      <c r="S8" s="93">
+        <v>3</v>
+      </c>
+      <c r="T8" s="146"/>
+    </row>
+    <row r="9" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A9" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B9" s="6">
+        <v>61018090</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2796</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>233</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="10">
+        <f>F9-I9</f>
+        <v>2796</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="23">
+        <f>F9+I9</f>
+        <v>2796</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>61016991</v>
+      </c>
+      <c r="R9" s="92">
+        <v>75</v>
+      </c>
+      <c r="S9" s="93">
+        <v>12</v>
+      </c>
+      <c r="T9" s="146"/>
+    </row>
+    <row r="10" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A10" s="11">
+        <v>45170</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="20">
+        <v>500</v>
+      </c>
+      <c r="G10" s="8">
+        <v>105</v>
+      </c>
+      <c r="H10" s="6">
+        <v>500</v>
+      </c>
+      <c r="I10" s="85"/>
+      <c r="J10" s="10">
+        <f>F10-I10</f>
+        <v>500</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="23">
+        <f>F10+I10</f>
+        <v>500</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="94">
+        <v>48</v>
+      </c>
+      <c r="S10" s="95">
+        <v>12</v>
+      </c>
+      <c r="T10" s="146"/>
+    </row>
+    <row r="11" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A11" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="20">
+        <v>8640</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>360</v>
+      </c>
+      <c r="I11" s="85"/>
+      <c r="J11" s="10">
+        <f>F11-I11</f>
+        <v>8640</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="23">
+        <f>F11+I11</f>
+        <v>8640</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>105985</v>
+      </c>
+      <c r="R11" s="92">
+        <v>42</v>
+      </c>
+      <c r="S11" s="93">
+        <v>3</v>
+      </c>
+      <c r="T11" s="146"/>
+    </row>
+    <row r="12" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A12" s="11">
+        <v>45171</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4320</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>180</v>
+      </c>
+      <c r="I12" s="85"/>
+      <c r="J12" s="10">
+        <f>F12-I12</f>
+        <v>4320</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="23">
+        <f>F12+I12</f>
+        <v>4320</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="92">
+        <v>80</v>
+      </c>
+      <c r="S12" s="93">
+        <v>12</v>
+      </c>
+      <c r="T12" s="146"/>
+    </row>
+    <row r="13" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A13" s="11">
+        <v>45171</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="20">
+        <v>5760</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6">
+        <v>480</v>
+      </c>
+      <c r="I13" s="85"/>
+      <c r="J13" s="10">
+        <f>F13-I13</f>
+        <v>5760</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="23">
+        <f>F13+I13</f>
+        <v>5760</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="92">
+        <v>80</v>
+      </c>
+      <c r="S13" s="93">
+        <v>12</v>
+      </c>
+      <c r="T13" s="146"/>
+    </row>
+    <row r="14" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A14" s="11">
+        <v>45171</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="20">
+        <v>6912</v>
+      </c>
+      <c r="G14" s="8">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>576</v>
+      </c>
+      <c r="I14" s="85"/>
+      <c r="J14" s="10">
+        <f>F14-I14</f>
+        <v>6912</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="23">
+        <f>F14+I14</f>
+        <v>6912</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="92">
+        <v>78</v>
+      </c>
+      <c r="S14" s="93">
+        <v>12</v>
+      </c>
+      <c r="T14" s="146"/>
+    </row>
+    <row r="15" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A15" s="11">
+        <v>45171</v>
+      </c>
+      <c r="B15" s="6">
+        <v>61018090</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1548</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>129</v>
+      </c>
+      <c r="I15" s="85"/>
+      <c r="J15" s="10">
+        <f>F15-I15</f>
+        <v>1548</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="23">
+        <f>F15+I15</f>
+        <v>1548</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>61013323</v>
+      </c>
+      <c r="R15" s="92">
+        <v>48</v>
+      </c>
+      <c r="S15" s="93">
+        <v>12</v>
+      </c>
+      <c r="T15" s="146"/>
+    </row>
+    <row r="16" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A16" s="11">
+        <v>45171</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="20">
+        <v>8442</v>
+      </c>
+      <c r="G16" s="8">
+        <v>67</v>
+      </c>
+      <c r="H16" s="6">
+        <f>F16/3</f>
+        <v>2814</v>
+      </c>
+      <c r="I16" s="85"/>
+      <c r="J16" s="10">
+        <f>F16-I16</f>
+        <v>8442</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23">
+        <f>F16+I16</f>
+        <v>8442</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="91">
+        <v>61013201</v>
+      </c>
+      <c r="R16" s="92">
+        <v>27</v>
+      </c>
+      <c r="S16" s="93">
+        <v>4</v>
+      </c>
+      <c r="T16" s="146"/>
+    </row>
+    <row r="17" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A17" s="12">
+        <v>45172</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="20">
+        <v>8640</v>
+      </c>
+      <c r="G17" s="8">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6">
+        <v>720</v>
+      </c>
+      <c r="I17" s="85"/>
+      <c r="J17" s="10">
+        <f>F17-I17</f>
+        <v>8640</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="23">
+        <f>F17+I17</f>
+        <v>8640</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="97">
+        <v>61018090</v>
+      </c>
+      <c r="R17" s="94">
+        <v>75</v>
+      </c>
+      <c r="S17" s="95">
+        <v>12</v>
+      </c>
+      <c r="T17" s="146"/>
+    </row>
+    <row r="18" spans="1:20" customHeight="1" ht="15">
+      <c r="A18" s="5">
+        <v>45173</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2743960</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="20">
+        <v>9045</v>
+      </c>
+      <c r="G18" s="8">
+        <v>26</v>
+      </c>
+      <c r="H18" s="6">
+        <v>603</v>
+      </c>
+      <c r="I18" s="85"/>
+      <c r="J18" s="10">
+        <f>F18-I18</f>
+        <v>9045</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="23">
+        <f>F18+I18</f>
+        <v>9045</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="92">
+        <v>294</v>
+      </c>
+      <c r="S18" s="93">
+        <v>6</v>
+      </c>
+      <c r="T18" s="146"/>
+    </row>
+    <row r="19" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A19" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="20">
+        <v>6120</v>
+      </c>
+      <c r="G19" s="8">
+        <v>17</v>
+      </c>
+      <c r="H19" s="6">
+        <v>408</v>
+      </c>
+      <c r="I19" s="85"/>
+      <c r="J19" s="10">
+        <f>F19-I19</f>
+        <v>6120</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="23">
+        <f>F19+I19</f>
+        <v>6120</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="94">
+        <v>80</v>
+      </c>
+      <c r="S19" s="95">
+        <v>24</v>
+      </c>
+      <c r="T19" s="146"/>
+    </row>
+    <row r="20" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A20" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="20">
+        <v>17280</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6">
+        <v>720</v>
+      </c>
+      <c r="I20" s="85"/>
+      <c r="J20" s="10">
+        <f>F20-I20</f>
+        <v>17280</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="23">
+        <f>F20+I20</f>
+        <v>17280</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="94">
+        <v>80</v>
+      </c>
+      <c r="S20" s="95">
+        <v>24</v>
+      </c>
+      <c r="T20" s="146"/>
+    </row>
+    <row r="21" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A21" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="20">
+        <v>11520</v>
+      </c>
+      <c r="G21" s="8">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
+        <v>960</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="10">
+        <f>F21-I21</f>
+        <v>11520</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="23">
+        <f>F21+I21</f>
+        <v>11520</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="94">
+        <v>80</v>
+      </c>
+      <c r="S21" s="95">
+        <v>24</v>
+      </c>
+      <c r="T21" s="146"/>
+    </row>
+    <row r="22" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A22" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="20">
+        <v>10944</v>
+      </c>
+      <c r="G22" s="8">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6">
+        <v>912</v>
+      </c>
+      <c r="I22" s="85"/>
+      <c r="J22" s="10">
+        <f>F22-I22</f>
+        <v>10944</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="23">
+        <f>F22+I22</f>
+        <v>10944</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="94">
+        <v>60</v>
+      </c>
+      <c r="S22" s="95">
+        <v>18</v>
+      </c>
+      <c r="T22" s="146"/>
+    </row>
+    <row r="23" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A23" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20">
+        <v>12096</v>
+      </c>
+      <c r="G23" s="8">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1008</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="10">
+        <f>F23-I23</f>
+        <v>12096</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="23">
+        <f>F23+I23</f>
+        <v>12096</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="97">
+        <v>61021240</v>
+      </c>
+      <c r="R23" s="92">
+        <v>48</v>
+      </c>
+      <c r="S23" s="93">
+        <v>12</v>
+      </c>
+      <c r="T23" s="146"/>
+    </row>
+    <row r="24" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A24" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20">
+        <v>5760</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6">
+        <v>480</v>
+      </c>
+      <c r="I24" s="85"/>
+      <c r="J24" s="10">
+        <f>F24-I24</f>
+        <v>5760</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="23">
+        <f>F24+I24</f>
+        <v>5760</v>
+      </c>
+      <c r="P24" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="94">
+        <v>61021241</v>
+      </c>
+      <c r="R24" s="92">
+        <v>48</v>
+      </c>
+      <c r="S24" s="93">
+        <v>12</v>
+      </c>
+      <c r="T24" s="146"/>
+    </row>
+    <row r="25" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A25" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="20">
+        <v>4608</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6">
+        <v>384</v>
+      </c>
+      <c r="I25" s="85"/>
+      <c r="J25" s="10">
+        <f>F25-I25</f>
+        <v>4608</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="23">
+        <f>F25+I25</f>
+        <v>4608</v>
+      </c>
+      <c r="P25" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="97">
+        <v>61003954</v>
+      </c>
+      <c r="R25" s="92">
+        <v>48</v>
+      </c>
+      <c r="S25" s="93">
+        <v>12</v>
+      </c>
+      <c r="T25" s="146"/>
+    </row>
+    <row r="26" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A26" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="20">
+        <v>5184</v>
+      </c>
+      <c r="G26" s="8">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6">
+        <v>432</v>
+      </c>
+      <c r="I26" s="85"/>
+      <c r="J26" s="10">
+        <f>F26-I26</f>
+        <v>5184</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="23">
+        <f>F26+I26</f>
+        <v>5184</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="92">
+        <v>51</v>
+      </c>
+      <c r="S26" s="93">
+        <v>12</v>
+      </c>
+      <c r="T26" s="146"/>
+    </row>
+    <row r="27" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A27" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B27" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="20">
+        <v>3480</v>
+      </c>
+      <c r="G27" s="8">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>290</v>
+      </c>
+      <c r="I27" s="85"/>
+      <c r="J27" s="10">
+        <f>F27-I27</f>
+        <v>3480</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="23">
+        <f>F27+I27</f>
+        <v>3480</v>
+      </c>
+      <c r="P27" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="R27" s="92">
+        <v>48</v>
+      </c>
+      <c r="S27" s="93">
+        <v>6</v>
+      </c>
+      <c r="T27" s="146"/>
+    </row>
+    <row r="28" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A28" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="20">
+        <v>5040</v>
+      </c>
+      <c r="G28" s="8">
+        <v>40</v>
+      </c>
+      <c r="H28" s="6">
+        <f>F28/3</f>
+        <v>1680</v>
+      </c>
+      <c r="I28" s="85"/>
+      <c r="J28" s="10">
+        <f>F28-I28</f>
+        <v>5040</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23">
+        <f>F28+I28</f>
+        <v>5040</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q28" s="97">
+        <v>61028013</v>
+      </c>
+      <c r="R28" s="92">
+        <v>180</v>
+      </c>
+      <c r="S28" s="93">
+        <v>24</v>
+      </c>
+      <c r="T28" s="146"/>
+    </row>
+    <row r="29" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A29" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="20">
+        <v>2280</v>
+      </c>
+      <c r="G29" s="8">
+        <v>38</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1140</v>
+      </c>
+      <c r="I29" s="85"/>
+      <c r="J29" s="10">
+        <f>F29-I29</f>
+        <v>2280</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="23">
+        <f>F29+I29</f>
+        <v>2280</v>
+      </c>
+      <c r="P29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" s="92">
+        <v>28</v>
+      </c>
+      <c r="S29" s="93">
+        <v>3</v>
+      </c>
+      <c r="T29" s="146"/>
+    </row>
+    <row r="30" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A30" s="11">
+        <v>45173</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2684668</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="20">
+        <v>3564</v>
+      </c>
+      <c r="G30" s="8">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6">
+        <v>132</v>
+      </c>
+      <c r="I30" s="85"/>
+      <c r="J30" s="10">
+        <f>F30-I30</f>
+        <v>3564</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="23">
+        <f>F30+I30</f>
+        <v>3564</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" s="92">
+        <v>80</v>
+      </c>
+      <c r="S30" s="93">
+        <v>24</v>
+      </c>
+      <c r="T30" s="146"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="5">
+        <v>45174</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="20">
+        <v>7560</v>
+      </c>
+      <c r="G31" s="8">
+        <v>21</v>
+      </c>
+      <c r="H31" s="6">
+        <v>504</v>
+      </c>
+      <c r="I31" s="85"/>
+      <c r="J31" s="10">
+        <f>F31-I31</f>
+        <v>7560</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="23">
+        <f>F31+I31</f>
+        <v>7560</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" s="92">
+        <v>90</v>
+      </c>
+      <c r="S31" s="93">
+        <v>24</v>
+      </c>
+      <c r="T31" s="146"/>
+    </row>
+    <row r="32" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A32" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="20">
+        <v>9720</v>
+      </c>
+      <c r="G32" s="8">
+        <v>27</v>
+      </c>
+      <c r="H32" s="6">
+        <v>648</v>
+      </c>
+      <c r="I32" s="85"/>
+      <c r="J32" s="10">
+        <f>F32-I32</f>
+        <v>9720</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="23">
+        <f>F32+I32</f>
+        <v>9720</v>
+      </c>
+      <c r="P32" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="97">
+        <v>61000548</v>
+      </c>
+      <c r="R32" s="92">
+        <v>48</v>
+      </c>
+      <c r="S32" s="93">
+        <v>6</v>
+      </c>
+      <c r="T32" s="146"/>
+    </row>
+    <row r="33" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A33" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="20">
+        <v>21600</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>900</v>
+      </c>
+      <c r="I33" s="85"/>
+      <c r="J33" s="10">
+        <f>F33-I33</f>
+        <v>21600</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="23">
+        <f>F33+I33</f>
+        <v>21600</v>
+      </c>
+      <c r="P33" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" s="92">
+        <v>294</v>
+      </c>
+      <c r="S33" s="93">
+        <v>24</v>
+      </c>
+      <c r="T33" s="146"/>
+    </row>
+    <row r="34" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A34" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="20">
+        <v>9216</v>
+      </c>
+      <c r="G34" s="8">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6">
+        <v>768</v>
+      </c>
+      <c r="I34" s="85"/>
+      <c r="J34" s="10">
+        <f>F34-I34</f>
+        <v>9216</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="23">
+        <f>F34+I34</f>
+        <v>9216</v>
+      </c>
+      <c r="P34" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" s="92">
+        <v>51</v>
+      </c>
+      <c r="S34" s="93">
+        <v>12</v>
+      </c>
+      <c r="T34" s="146"/>
+    </row>
+    <row r="35" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A35" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="20">
+        <v>10368</v>
+      </c>
+      <c r="G35" s="8">
+        <v>18</v>
+      </c>
+      <c r="H35" s="6">
+        <v>864</v>
+      </c>
+      <c r="I35" s="85"/>
+      <c r="J35" s="10">
+        <f>F35-I35</f>
+        <v>10368</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="23">
+        <f>F35+I35</f>
+        <v>10368</v>
+      </c>
+      <c r="P35" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q35" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" s="98">
+        <v>90</v>
+      </c>
+      <c r="S35" s="99">
+        <v>12</v>
+      </c>
+      <c r="T35" s="146"/>
+    </row>
+    <row r="36" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A36" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="20">
+        <v>11520</v>
+      </c>
+      <c r="G36" s="8">
+        <v>20</v>
+      </c>
+      <c r="H36" s="6">
+        <v>960</v>
+      </c>
+      <c r="I36" s="85"/>
+      <c r="J36" s="10">
+        <f>F36-I36</f>
+        <v>11520</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="23">
+        <f>F36+I36</f>
+        <v>11520</v>
+      </c>
+      <c r="P36" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q36" s="100">
+        <v>153122</v>
+      </c>
+      <c r="R36" s="94">
+        <v>42</v>
+      </c>
+      <c r="S36" s="95">
+        <v>3</v>
+      </c>
+      <c r="T36" s="146"/>
+    </row>
+    <row r="37" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A37" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="20">
+        <v>4608</v>
+      </c>
+      <c r="G37" s="8">
+        <v>8</v>
+      </c>
+      <c r="H37" s="6">
+        <v>384</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="10">
+        <f>F37-I37</f>
+        <v>4608</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="23">
+        <f>F37+I37</f>
+        <v>4608</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="92">
+        <v>48</v>
+      </c>
+      <c r="S37" s="93">
+        <v>6</v>
+      </c>
+      <c r="T37" s="146"/>
+    </row>
+    <row r="38" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A38" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="20">
+        <v>4608</v>
+      </c>
+      <c r="G38" s="8">
+        <v>8</v>
+      </c>
+      <c r="H38" s="6">
+        <v>384</v>
+      </c>
+      <c r="I38" s="85"/>
+      <c r="J38" s="10">
+        <f>F38-I38</f>
+        <v>4608</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="23">
+        <f>F38+I38</f>
+        <v>4608</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="92">
+        <v>48</v>
+      </c>
+      <c r="S38" s="93">
+        <v>6</v>
+      </c>
+      <c r="T38" s="146"/>
+    </row>
+    <row r="39" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A39" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B39" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="20">
+        <v>2196</v>
+      </c>
+      <c r="G39" s="8">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6">
+        <v>183</v>
+      </c>
+      <c r="I39" s="85"/>
+      <c r="J39" s="10">
+        <f>F39-I39</f>
+        <v>2196</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="23">
+        <f>F39+I39</f>
+        <v>2196</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="91">
+        <v>61012125</v>
+      </c>
+      <c r="R39" s="94">
+        <v>78</v>
+      </c>
+      <c r="S39" s="95">
+        <v>12</v>
+      </c>
+      <c r="T39" s="146"/>
+    </row>
+    <row r="40" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A40" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B40" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="20">
+        <v>7068</v>
+      </c>
+      <c r="G40" s="8">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6">
+        <v>589</v>
+      </c>
+      <c r="I40" s="85"/>
+      <c r="J40" s="10">
+        <f>F40-I40</f>
+        <v>7068</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="23">
+        <f>F40+I40</f>
+        <v>7068</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q40" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="R40" s="92">
+        <v>90</v>
+      </c>
+      <c r="S40" s="93">
+        <v>12</v>
+      </c>
+      <c r="T40" s="146"/>
+    </row>
+    <row r="41" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A41" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B41" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1920</v>
+      </c>
+      <c r="G41" s="8">
+        <v>4</v>
+      </c>
+      <c r="H41" s="6">
+        <v>160</v>
+      </c>
+      <c r="I41" s="85"/>
+      <c r="J41" s="10">
+        <f>F41-I41</f>
+        <v>1920</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="23">
+        <f>F41+I41</f>
+        <v>1920</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="R41" s="92">
+        <v>132</v>
+      </c>
+      <c r="S41" s="93">
+        <v>12</v>
+      </c>
+      <c r="T41" s="146"/>
+    </row>
+    <row r="42" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A42" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="20">
+        <v>4950</v>
+      </c>
+      <c r="G42" s="8">
+        <v>55</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2475</v>
+      </c>
+      <c r="I42" s="85"/>
+      <c r="J42" s="10">
+        <f>F42-I42</f>
+        <v>4950</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="23">
+        <f>F42+I42</f>
+        <v>4950</v>
+      </c>
+      <c r="P42" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="R42" s="92">
+        <v>45</v>
+      </c>
+      <c r="S42" s="93">
+        <v>6</v>
+      </c>
+      <c r="T42" s="146"/>
+    </row>
+    <row r="43" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A43" s="11">
+        <v>45174</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="20">
+        <v>11160</v>
+      </c>
+      <c r="G43" s="8">
+        <v>124</v>
+      </c>
+      <c r="H43" s="6">
+        <v>5580</v>
+      </c>
+      <c r="I43" s="85"/>
+      <c r="J43" s="10">
+        <f>F43-I43</f>
+        <v>11160</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="23">
+        <f>F43+I43</f>
+        <v>11160</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="R43" s="98">
+        <v>2</v>
+      </c>
+      <c r="S43" s="99">
+        <v>30</v>
+      </c>
+      <c r="T43" s="146"/>
+    </row>
+    <row r="44" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A44" s="5">
+        <v>45175</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="20">
+        <v>7920</v>
+      </c>
+      <c r="G44" s="8">
+        <v>22</v>
+      </c>
+      <c r="H44" s="6">
+        <v>528</v>
+      </c>
+      <c r="I44" s="85"/>
+      <c r="J44" s="10">
+        <f>F44-I44</f>
+        <v>7920</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="23">
+        <f>F44+I44</f>
+        <v>7920</v>
+      </c>
+      <c r="P44" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q44" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="R44" s="92">
+        <v>45</v>
+      </c>
+      <c r="S44" s="93">
+        <v>6</v>
+      </c>
+      <c r="T44" s="146"/>
+    </row>
+    <row r="45" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A45" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="20">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="8">
+        <v>9</v>
+      </c>
+      <c r="H45" s="6">
+        <v>200</v>
+      </c>
+      <c r="I45" s="85"/>
+      <c r="J45" s="10">
+        <f>F45-I45</f>
+        <v>3000</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="23">
+        <f>F45+I45</f>
+        <v>3000</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q45" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="92">
+        <v>180</v>
+      </c>
+      <c r="S45" s="93">
+        <v>24</v>
+      </c>
+      <c r="T45" s="146"/>
+    </row>
+    <row r="46" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A46" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="20">
+        <v>3396</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>283</v>
+      </c>
+      <c r="I46" s="85"/>
+      <c r="J46" s="10">
+        <f>F46-I46</f>
+        <v>3396</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="23">
+        <f>F46+I46</f>
+        <v>3396</v>
+      </c>
+      <c r="P46" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46" s="96">
+        <v>61024206</v>
+      </c>
+      <c r="R46" s="92">
+        <v>3</v>
+      </c>
+      <c r="S46" s="93">
+        <v>20</v>
+      </c>
+      <c r="T46" s="146"/>
+    </row>
+    <row r="47" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A47" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="20">
+        <v>17280</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="H47" s="6">
+        <v>720</v>
+      </c>
+      <c r="I47" s="85"/>
+      <c r="J47" s="10">
+        <f>F47-I47</f>
+        <v>17280</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="23">
+        <f>F47+I47</f>
+        <v>17280</v>
+      </c>
+      <c r="P47" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q47" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="R47" s="92">
+        <v>60</v>
+      </c>
+      <c r="S47" s="93">
+        <v>20</v>
+      </c>
+      <c r="T47" s="146"/>
+    </row>
+    <row r="48" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A48" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="20">
+        <v>13248</v>
+      </c>
+      <c r="G48" s="8">
+        <v>23</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1104</v>
+      </c>
+      <c r="I48" s="85"/>
+      <c r="J48" s="10">
+        <f>F48-I48</f>
+        <v>13248</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="23">
+        <f>F48+I48</f>
+        <v>13248</v>
+      </c>
+      <c r="P48" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q48" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="R48" s="98">
+        <v>80</v>
+      </c>
+      <c r="S48" s="99">
+        <v>12</v>
+      </c>
+      <c r="T48" s="146"/>
+    </row>
+    <row r="49" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A49" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="20">
+        <v>6336</v>
+      </c>
+      <c r="G49" s="8">
+        <v>11</v>
+      </c>
+      <c r="H49" s="6">
+        <v>528</v>
+      </c>
+      <c r="I49" s="85"/>
+      <c r="J49" s="10">
+        <f>F49-I49</f>
+        <v>6336</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="23">
+        <f>F49+I49</f>
+        <v>6336</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q49" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="R49" s="92">
+        <v>60</v>
+      </c>
+      <c r="S49" s="93">
+        <v>24</v>
+      </c>
+      <c r="T49" s="146"/>
+    </row>
+    <row r="50" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A50" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="20">
+        <v>7488</v>
+      </c>
+      <c r="G50" s="8">
+        <v>13</v>
+      </c>
+      <c r="H50" s="6">
+        <v>624</v>
+      </c>
+      <c r="I50" s="85"/>
+      <c r="J50" s="10">
+        <f>F50-I50</f>
+        <v>7488</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="23">
+        <f>F50+I50</f>
+        <v>7488</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="R50" s="92">
+        <v>80</v>
+      </c>
+      <c r="S50" s="93">
+        <v>12</v>
+      </c>
+      <c r="T50" s="146"/>
+    </row>
+    <row r="51" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A51" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="20">
+        <v>5760</v>
+      </c>
+      <c r="G51" s="8">
+        <v>10</v>
+      </c>
+      <c r="H51" s="6">
+        <v>480</v>
+      </c>
+      <c r="I51" s="85"/>
+      <c r="J51" s="10">
+        <f>F51-I51</f>
+        <v>5760</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="23">
+        <f>F51+I51</f>
+        <v>5760</v>
+      </c>
+      <c r="P51" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q51" s="91">
+        <v>61013016</v>
+      </c>
+      <c r="R51" s="92">
+        <v>56</v>
+      </c>
+      <c r="S51" s="93">
+        <v>12</v>
+      </c>
+      <c r="T51" s="146"/>
+    </row>
+    <row r="52" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A52" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B52" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="20">
+        <v>3264</v>
+      </c>
+      <c r="G52" s="8">
+        <v>6</v>
+      </c>
+      <c r="H52" s="6">
+        <v>272</v>
+      </c>
+      <c r="I52" s="85"/>
+      <c r="J52" s="10">
+        <f>F52-I52</f>
+        <v>3264</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="23">
+        <f>F52+I52</f>
+        <v>3264</v>
+      </c>
+      <c r="P52" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q52" s="91">
+        <v>61008887</v>
+      </c>
+      <c r="R52" s="92">
+        <v>36</v>
+      </c>
+      <c r="S52" s="93">
+        <v>3</v>
+      </c>
+      <c r="T52" s="146"/>
+    </row>
+    <row r="53" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A53" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="20">
+        <v>10260</v>
+      </c>
+      <c r="G53" s="8">
+        <v>114</v>
+      </c>
+      <c r="H53" s="6">
+        <v>5130</v>
+      </c>
+      <c r="I53" s="85"/>
+      <c r="J53" s="10">
+        <f>F53-I53</f>
+        <v>10260</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="23">
+        <f>F53+I53</f>
+        <v>10260</v>
+      </c>
+      <c r="P53" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q53" s="91">
+        <v>61020354</v>
+      </c>
+      <c r="R53" s="94">
+        <v>75</v>
+      </c>
+      <c r="S53" s="95">
+        <v>12</v>
+      </c>
+      <c r="T53" s="146"/>
+    </row>
+    <row r="54" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A54" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="20">
+        <v>8190</v>
+      </c>
+      <c r="G54" s="8">
+        <v>91</v>
+      </c>
+      <c r="H54" s="6">
+        <v>4095</v>
+      </c>
+      <c r="I54" s="85"/>
+      <c r="J54" s="10">
+        <f>F54-I54</f>
+        <v>8190</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="23">
+        <f>F54+I54</f>
+        <v>8190</v>
+      </c>
+      <c r="P54" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q54" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54" s="94">
+        <v>42</v>
+      </c>
+      <c r="S54" s="95">
+        <v>3</v>
+      </c>
+      <c r="T54" s="146"/>
+    </row>
+    <row r="55" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A55" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2684668</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="20">
+        <v>3402</v>
+      </c>
+      <c r="G55" s="8">
+        <v>21</v>
+      </c>
+      <c r="H55" s="6">
+        <v>126</v>
+      </c>
+      <c r="I55" s="85"/>
+      <c r="J55" s="10">
+        <f>F55-I55</f>
+        <v>3402</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="23">
+        <f>F55+I55</f>
+        <v>3402</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q55" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="R55" s="94">
+        <v>80</v>
+      </c>
+      <c r="S55" s="95">
+        <v>24</v>
+      </c>
+      <c r="T55" s="146"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="F56" s="20">
+        <v>11160</v>
+      </c>
+      <c r="I56" s="85"/>
+      <c r="J56" s="10">
+        <f>F56-I56</f>
+        <v>11160</v>
+      </c>
+      <c r="L56" s="23">
+        <f>F56+I56</f>
+        <v>11160</v>
+      </c>
+      <c r="P56" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q56" s="97">
+        <v>61016258</v>
+      </c>
+      <c r="R56" s="92">
+        <v>42</v>
+      </c>
+      <c r="S56" s="93">
+        <v>3</v>
+      </c>
+      <c r="T56" s="146"/>
+    </row>
+    <row r="57" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A57" s="5">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="20">
+        <v>7920</v>
+      </c>
+      <c r="G57" s="8">
+        <v>14</v>
+      </c>
+      <c r="H57" s="10">
+        <v>7920</v>
+      </c>
+      <c r="I57" s="85"/>
+      <c r="J57" s="10">
+        <f>F57-I57</f>
+        <v>7920</v>
+      </c>
+      <c r="L57" s="23">
+        <f>F57+I57</f>
+        <v>7920</v>
+      </c>
+      <c r="P57" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q57" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="R57" s="94">
+        <v>45</v>
+      </c>
+      <c r="S57" s="95">
+        <v>2</v>
+      </c>
+      <c r="T57" s="146"/>
+    </row>
+    <row r="58" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A58" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2743987</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="20">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="8">
+        <v>14</v>
+      </c>
+      <c r="H58" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="85"/>
+      <c r="J58" s="10">
+        <f>F58-I58</f>
+        <v>3000</v>
+      </c>
+      <c r="L58" s="23">
+        <f>F58+I58</f>
+        <v>3000</v>
+      </c>
+      <c r="P58" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="R58" s="98">
+        <v>80</v>
+      </c>
+      <c r="S58" s="99">
+        <v>12</v>
+      </c>
+      <c r="T58" s="146"/>
+    </row>
+    <row r="59" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A59" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="20">
+        <v>3396</v>
+      </c>
+      <c r="G59" s="8">
+        <v>12</v>
+      </c>
+      <c r="H59" s="10">
+        <v>3396</v>
+      </c>
+      <c r="I59" s="85"/>
+      <c r="J59" s="10">
+        <f>F59-I59</f>
+        <v>3396</v>
+      </c>
+      <c r="L59" s="23">
+        <f>F59+I59</f>
+        <v>3396</v>
+      </c>
+      <c r="P59" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q59" s="91">
+        <v>61012125</v>
+      </c>
+      <c r="R59" s="94">
+        <v>78</v>
+      </c>
+      <c r="S59" s="95">
+        <v>12</v>
+      </c>
+      <c r="T59" s="146"/>
+    </row>
+    <row r="60" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A60" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="20">
+        <v>17280</v>
+      </c>
+      <c r="G60" s="8">
+        <v>10</v>
+      </c>
+      <c r="H60" s="10">
+        <v>17280</v>
+      </c>
+      <c r="I60" s="85"/>
+      <c r="J60" s="10">
+        <f>F60-I60</f>
+        <v>17280</v>
+      </c>
+      <c r="L60" s="23">
+        <f>F60+I60</f>
+        <v>17280</v>
+      </c>
+      <c r="P60" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60" s="97">
+        <v>61021241</v>
+      </c>
+      <c r="R60" s="92">
+        <v>48</v>
+      </c>
+      <c r="S60" s="93">
+        <v>12</v>
+      </c>
+      <c r="T60" s="146"/>
+    </row>
+    <row r="61" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A61" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="20">
+        <v>13248</v>
+      </c>
+      <c r="G61" s="8">
+        <v>12</v>
+      </c>
+      <c r="H61" s="10">
+        <v>13248</v>
+      </c>
+      <c r="I61" s="85"/>
+      <c r="J61" s="10">
+        <f>F61-I61</f>
+        <v>13248</v>
+      </c>
+      <c r="L61" s="23">
+        <f>F61+I61</f>
+        <v>13248</v>
+      </c>
+      <c r="P61" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q61" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="R61" s="101">
+        <v>2</v>
+      </c>
+      <c r="S61" s="102">
+        <v>30</v>
+      </c>
+      <c r="T61" s="146"/>
+    </row>
+    <row r="62" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A62" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="20">
+        <v>6336</v>
+      </c>
+      <c r="G62" s="8">
+        <v>11</v>
+      </c>
+      <c r="H62" s="10">
+        <v>6336</v>
+      </c>
+      <c r="I62" s="85"/>
+      <c r="J62" s="10">
+        <f>F62-I62</f>
+        <v>6336</v>
+      </c>
+      <c r="L62" s="23">
+        <f>F62+I62</f>
+        <v>6336</v>
+      </c>
+      <c r="P62" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q62" s="89">
+        <v>2743985</v>
+      </c>
+      <c r="R62" s="89">
+        <v>24</v>
+      </c>
+      <c r="S62" s="90">
+        <v>15</v>
+      </c>
+      <c r="T62" s="147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A63" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="20">
+        <v>7488</v>
+      </c>
+      <c r="G63" s="8">
+        <v>12</v>
+      </c>
+      <c r="H63" s="10">
+        <v>7488</v>
+      </c>
+      <c r="I63" s="85"/>
+      <c r="J63" s="10">
+        <f>F63-I63</f>
+        <v>7488</v>
+      </c>
+      <c r="L63" s="23">
+        <f>F63+I63</f>
+        <v>7488</v>
+      </c>
+      <c r="P63" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q63" s="92">
+        <v>2077928</v>
+      </c>
+      <c r="R63" s="92">
+        <v>44</v>
+      </c>
+      <c r="S63" s="93">
+        <v>16</v>
+      </c>
+      <c r="T63" s="147"/>
+    </row>
+    <row r="64" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A64" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="20">
+        <v>5760</v>
+      </c>
+      <c r="G64" s="8">
+        <v>11</v>
+      </c>
+      <c r="H64" s="10">
+        <v>5760</v>
+      </c>
+      <c r="I64" s="85"/>
+      <c r="J64" s="10">
+        <f>F64-I64</f>
+        <v>5760</v>
+      </c>
+      <c r="L64" s="23">
+        <f>F64+I64</f>
+        <v>5760</v>
+      </c>
+      <c r="P64" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q64" s="92">
+        <v>2743960</v>
+      </c>
+      <c r="R64" s="92">
+        <v>24</v>
+      </c>
+      <c r="S64" s="93">
+        <v>15</v>
+      </c>
+      <c r="T64" s="147"/>
+    </row>
+    <row r="65" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A65" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B65" s="6">
+        <v>61021240</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="20">
+        <v>3264</v>
+      </c>
+      <c r="G65" s="8">
+        <v>12</v>
+      </c>
+      <c r="H65" s="10">
+        <v>3264</v>
+      </c>
+      <c r="I65" s="85"/>
+      <c r="J65" s="10">
+        <f>F65-I65</f>
+        <v>3264</v>
+      </c>
+      <c r="L65" s="23">
+        <f>F65+I65</f>
+        <v>3264</v>
+      </c>
+      <c r="P65" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q65" s="92">
+        <v>2077798</v>
+      </c>
+      <c r="R65" s="92">
+        <v>44</v>
+      </c>
+      <c r="S65" s="93">
+        <v>16</v>
+      </c>
+      <c r="T65" s="147"/>
+    </row>
+    <row r="66" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A66" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="20">
+        <v>10260</v>
+      </c>
+      <c r="G66" s="8">
+        <v>25</v>
+      </c>
+      <c r="H66" s="10">
+        <v>10260</v>
+      </c>
+      <c r="I66" s="85"/>
+      <c r="J66" s="10">
+        <f>F66-I66</f>
+        <v>10260</v>
+      </c>
+      <c r="L66" s="23">
+        <f>F66+I66</f>
+        <v>10260</v>
+      </c>
+      <c r="P66" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q66" s="92">
+        <v>2077800</v>
+      </c>
+      <c r="R66" s="92">
+        <v>44</v>
+      </c>
+      <c r="S66" s="93">
+        <v>16</v>
+      </c>
+      <c r="T66" s="147"/>
+    </row>
+    <row r="67" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A67" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="20">
+        <v>8190</v>
+      </c>
+      <c r="G67" s="8">
+        <v>23</v>
+      </c>
+      <c r="H67" s="10">
+        <v>8190</v>
+      </c>
+      <c r="I67" s="85"/>
+      <c r="J67" s="10">
+        <f>F67-I67</f>
+        <v>8190</v>
+      </c>
+      <c r="L67" s="23">
+        <f>F67+I67</f>
+        <v>8190</v>
+      </c>
+      <c r="P67" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q67" s="92">
+        <v>1977187</v>
+      </c>
+      <c r="R67" s="92">
+        <v>52</v>
+      </c>
+      <c r="S67" s="93">
+        <v>10</v>
+      </c>
+      <c r="T67" s="147"/>
+    </row>
+    <row r="68" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A68" s="11">
+        <v>45175</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2684668</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="20">
+        <v>3402</v>
+      </c>
+      <c r="G68" s="8">
+        <v>13</v>
+      </c>
+      <c r="H68" s="10">
+        <v>3402</v>
+      </c>
+      <c r="I68" s="85"/>
+      <c r="J68" s="10">
+        <f>F68-I68</f>
+        <v>3402</v>
+      </c>
+      <c r="L68" s="23">
+        <f>F68+I68</f>
+        <v>3402</v>
+      </c>
+      <c r="P68" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q68" s="92">
+        <v>1977228</v>
+      </c>
+      <c r="R68" s="92">
+        <v>52</v>
+      </c>
+      <c r="S68" s="93">
+        <v>10</v>
+      </c>
+      <c r="T68" s="147"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="8">
+        <v>3</v>
+      </c>
+      <c r="H69" s="10">
+        <v>45</v>
+      </c>
+      <c r="I69" s="107"/>
+      <c r="J69" s="10">
+        <f>F69-I69</f>
+        <v>1000</v>
+      </c>
+      <c r="L69" s="23">
+        <f>F69+I69</f>
+        <v>1000</v>
+      </c>
+      <c r="P69" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q69" s="92">
+        <v>1977231</v>
+      </c>
+      <c r="R69" s="92">
+        <v>52</v>
+      </c>
+      <c r="S69" s="93">
+        <v>10</v>
+      </c>
+      <c r="T69" s="147"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="10">
+        <f>F70-I70</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q70" s="92">
+        <v>1949074</v>
+      </c>
+      <c r="R70" s="92">
+        <v>4</v>
+      </c>
+      <c r="S70" s="93">
+        <v>210</v>
+      </c>
+      <c r="T70" s="147"/>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="21">
+        <v>5000</v>
+      </c>
+      <c r="I71" s="85"/>
+      <c r="J71" s="10">
+        <f>F71-I71</f>
+        <v>5000</v>
+      </c>
+      <c r="P71" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q71" s="92">
+        <v>1977186</v>
+      </c>
+      <c r="R71" s="92">
+        <v>24</v>
+      </c>
+      <c r="S71" s="93">
+        <v>6</v>
+      </c>
+      <c r="T71" s="147"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="B72" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="21">
+        <v>6000</v>
+      </c>
+      <c r="J72" s="10">
+        <f>F72-I72</f>
+        <v>6000</v>
+      </c>
+      <c r="P72" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q72" s="92">
+        <v>1977227</v>
+      </c>
+      <c r="R72" s="92">
+        <v>24</v>
+      </c>
+      <c r="S72" s="93">
+        <v>6</v>
+      </c>
+      <c r="T72" s="147"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="B73" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="21">
+        <v>7000</v>
+      </c>
+      <c r="J73" s="10">
+        <f>F73-I73</f>
+        <v>7000</v>
+      </c>
+      <c r="P73" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73" s="103">
+        <v>2743960</v>
+      </c>
+      <c r="R73" s="92">
+        <v>24</v>
+      </c>
+      <c r="S73" s="93">
+        <v>15</v>
+      </c>
+      <c r="T73" s="147"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="B74" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="21">
+        <v>8000</v>
+      </c>
+      <c r="J74" s="10">
+        <f>F74-I74</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="B75" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="21">
+        <v>7000</v>
+      </c>
+      <c r="J75" s="10">
+        <f>F75-I75</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="B76" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="21">
+        <v>8000</v>
+      </c>
+      <c r="J76" s="10">
+        <f>F76-I76</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="C80" s="106"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:T70"/>
+  <mergeCells>
+    <mergeCell ref="T3:T61"/>
+    <mergeCell ref="T62:T73"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>#REF!=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$C$7=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I71">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>I2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -7082,35 +10684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
